--- a/Employee_Reports35/John Michael Angelo Mesina Clemen Q0549.xlsx
+++ b/Employee_Reports35/John Michael Angelo Mesina Clemen Q0549.xlsx
@@ -581,11 +581,11 @@
         </is>
       </c>
       <c r="H3" s="3" t="n">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="I3" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J3" s="3" t="inlineStr">
@@ -630,11 +630,11 @@
         </is>
       </c>
       <c r="H4" s="3" t="n">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="I4" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J4" s="3" t="inlineStr">
@@ -679,11 +679,11 @@
         </is>
       </c>
       <c r="H5" s="3" t="n">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="I5" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J5" s="3" t="inlineStr">
@@ -728,11 +728,11 @@
         </is>
       </c>
       <c r="H6" s="3" t="n">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="I6" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J6" s="3" t="inlineStr">
@@ -777,11 +777,11 @@
         </is>
       </c>
       <c r="H7" s="4" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I7" s="4" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J7" s="4" t="inlineStr">
@@ -814,11 +814,11 @@
         </is>
       </c>
       <c r="H8" s="3" t="n">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="I8" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J8" s="3" t="inlineStr">
@@ -863,11 +863,11 @@
         </is>
       </c>
       <c r="H9" s="3" t="n">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="I9" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J9" s="3" t="inlineStr">
@@ -900,11 +900,11 @@
         </is>
       </c>
       <c r="H10" s="3" t="n">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="I10" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J10" s="3" t="inlineStr">

--- a/Employee_Reports35/John Michael Angelo Mesina Clemen Q0549.xlsx
+++ b/Employee_Reports35/John Michael Angelo Mesina Clemen Q0549.xlsx
@@ -581,11 +581,11 @@
         </is>
       </c>
       <c r="H3" s="3" t="n">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="I3" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J3" s="3" t="inlineStr">
@@ -630,11 +630,11 @@
         </is>
       </c>
       <c r="H4" s="3" t="n">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="I4" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J4" s="3" t="inlineStr">
@@ -679,11 +679,11 @@
         </is>
       </c>
       <c r="H5" s="3" t="n">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="I5" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J5" s="3" t="inlineStr">
@@ -728,11 +728,11 @@
         </is>
       </c>
       <c r="H6" s="3" t="n">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="I6" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J6" s="3" t="inlineStr">
@@ -777,11 +777,11 @@
         </is>
       </c>
       <c r="H7" s="4" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I7" s="4" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J7" s="4" t="inlineStr">
@@ -814,11 +814,11 @@
         </is>
       </c>
       <c r="H8" s="3" t="n">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="I8" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J8" s="3" t="inlineStr">
@@ -863,11 +863,11 @@
         </is>
       </c>
       <c r="H9" s="3" t="n">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="I9" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J9" s="3" t="inlineStr">
@@ -900,11 +900,11 @@
         </is>
       </c>
       <c r="H10" s="3" t="n">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="I10" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J10" s="3" t="inlineStr">
